--- a/运营出入金/产品费用出金/九章-托管户入金.xlsx
+++ b/运营出入金/产品费用出金/九章-托管户入金.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="216">
   <si>
     <t>管理费</t>
   </si>
@@ -409,6 +409,9 @@
     <t>中信证券股份有限公司</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>安信证券股份有限公司</t>
   </si>
   <si>
@@ -445,7 +448,7 @@
     <t>410200016059</t>
   </si>
   <si>
-    <t xml:space="preserve">79151102 </t>
+    <t>79151102</t>
   </si>
   <si>
     <t>0932466146</t>
@@ -463,6 +466,9 @@
     <t>010000069143</t>
   </si>
   <si>
+    <t>932466122</t>
+  </si>
+  <si>
     <t>34000000238</t>
   </si>
   <si>
@@ -481,9 +487,15 @@
     <t>0932466141</t>
   </si>
   <si>
+    <t>10118484</t>
+  </si>
+  <si>
     <t>109065006170</t>
   </si>
   <si>
+    <t>71988888</t>
+  </si>
+  <si>
     <t>330200047122</t>
   </si>
   <si>
@@ -532,9 +544,6 @@
     <t>56642402</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>国投安信期货有限公司</t>
   </si>
   <si>
@@ -547,6 +556,9 @@
     <t>浙商期货有限公司</t>
   </si>
   <si>
+    <t>中信期货有限公司</t>
+  </si>
+  <si>
     <t>格林大华期货有限公司</t>
   </si>
   <si>
@@ -574,15 +586,39 @@
     <t>150183</t>
   </si>
   <si>
+    <t>08290068</t>
+  </si>
+  <si>
+    <t>8001001950</t>
+  </si>
+  <si>
     <t>22080083</t>
   </si>
   <si>
+    <t>120302312</t>
+  </si>
+  <si>
+    <t>102802656</t>
+  </si>
+  <si>
+    <t>120101880</t>
+  </si>
+  <si>
+    <t>102802669</t>
+  </si>
+  <si>
+    <t>5010000999</t>
+  </si>
+  <si>
     <t>22080010</t>
   </si>
   <si>
     <t>22080012</t>
   </si>
   <si>
+    <t>22080003</t>
+  </si>
+  <si>
     <t>22080035</t>
   </si>
   <si>
@@ -590,6 +626,42 @@
   </si>
   <si>
     <t>22080033</t>
+  </si>
+  <si>
+    <t>120302271</t>
+  </si>
+  <si>
+    <t>275508190</t>
+  </si>
+  <si>
+    <t>207180268</t>
+  </si>
+  <si>
+    <t>0930000609</t>
+  </si>
+  <si>
+    <t>0930000619</t>
+  </si>
+  <si>
+    <t>19070299</t>
+  </si>
+  <si>
+    <t>10120218</t>
+  </si>
+  <si>
+    <t>88762195</t>
+  </si>
+  <si>
+    <t>13060666</t>
+  </si>
+  <si>
+    <t>120302353</t>
+  </si>
+  <si>
+    <t>120189</t>
+  </si>
+  <si>
+    <t>15300073</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1152,13 @@
         <v>127</v>
       </c>
       <c r="T2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1145,10 +1220,13 @@
         <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1210,10 +1288,13 @@
         <v>127</v>
       </c>
       <c r="T4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U4" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1275,10 +1356,13 @@
         <v>127</v>
       </c>
       <c r="T5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1340,10 +1424,13 @@
         <v>127</v>
       </c>
       <c r="T6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U6" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1399,10 +1486,13 @@
         <v>128</v>
       </c>
       <c r="T7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1464,13 +1554,13 @@
         <v>129</v>
       </c>
       <c r="T8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="V8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1532,10 +1622,13 @@
         <v>127</v>
       </c>
       <c r="T9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U9" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1597,10 +1690,13 @@
         <v>127</v>
       </c>
       <c r="T10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U10" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1662,13 +1758,13 @@
         <v>127</v>
       </c>
       <c r="T11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="V11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1730,10 +1826,13 @@
         <v>130</v>
       </c>
       <c r="T12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U12" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="V12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1791,8 +1890,17 @@
       <c r="R13" t="s">
         <v>121</v>
       </c>
+      <c r="S13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" t="s">
+        <v>131</v>
+      </c>
       <c r="U13" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1845,13 +1953,16 @@
         <v>123</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U14" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="V14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1909,8 +2020,17 @@
       <c r="R15" t="s">
         <v>121</v>
       </c>
+      <c r="S15" t="s">
+        <v>131</v>
+      </c>
+      <c r="T15" t="s">
+        <v>131</v>
+      </c>
       <c r="U15" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1971,11 +2091,14 @@
       <c r="S16" t="s">
         <v>127</v>
       </c>
+      <c r="T16" t="s">
+        <v>150</v>
+      </c>
       <c r="U16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2027,8 +2150,17 @@
       <c r="R17" t="s">
         <v>124</v>
       </c>
+      <c r="S17" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" t="s">
+        <v>131</v>
+      </c>
       <c r="U17" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -2080,8 +2212,17 @@
       <c r="R18" t="s">
         <v>124</v>
       </c>
+      <c r="S18" t="s">
+        <v>131</v>
+      </c>
+      <c r="T18" t="s">
+        <v>131</v>
+      </c>
       <c r="U18" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -2133,8 +2274,17 @@
       <c r="R19" t="s">
         <v>124</v>
       </c>
+      <c r="S19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T19" t="s">
+        <v>131</v>
+      </c>
       <c r="U19" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -2186,8 +2336,17 @@
       <c r="R20" t="s">
         <v>124</v>
       </c>
+      <c r="S20" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" t="s">
+        <v>131</v>
+      </c>
       <c r="U20" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2239,8 +2398,17 @@
       <c r="R21" t="s">
         <v>124</v>
       </c>
+      <c r="S21" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
       <c r="U21" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2296,10 +2464,13 @@
         <v>130</v>
       </c>
       <c r="T22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U22" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="V22" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2352,10 +2523,16 @@
         <v>126</v>
       </c>
       <c r="S23" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="T23" t="s">
+        <v>131</v>
       </c>
       <c r="U23" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2407,8 +2584,17 @@
       <c r="R24" t="s">
         <v>124</v>
       </c>
+      <c r="S24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" t="s">
+        <v>131</v>
+      </c>
       <c r="U24" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2538,10 +2724,13 @@
         <v>130</v>
       </c>
       <c r="T26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U26" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="V26" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2600,13 +2789,16 @@
         <v>121</v>
       </c>
       <c r="S27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U27" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="V27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2668,10 +2860,13 @@
         <v>127</v>
       </c>
       <c r="T28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U28" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2727,10 +2922,13 @@
         <v>128</v>
       </c>
       <c r="T29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U29" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="V29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2848,10 +3046,13 @@
         <v>127</v>
       </c>
       <c r="T31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U31" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="V31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2966,10 +3167,16 @@
         <v>122</v>
       </c>
       <c r="S33" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="T33" t="s">
+        <v>157</v>
       </c>
       <c r="U33" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="V33" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3022,16 +3229,16 @@
         <v>122</v>
       </c>
       <c r="S34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V34" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3084,13 +3291,16 @@
         <v>122</v>
       </c>
       <c r="S35" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="T35" t="s">
+        <v>159</v>
       </c>
       <c r="U35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V35" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3146,10 +3356,13 @@
         <v>128</v>
       </c>
       <c r="T36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="U36" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="V36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3205,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="T37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="U37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V37" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3267,13 +3480,13 @@
         <v>128</v>
       </c>
       <c r="T38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V38" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3329,13 +3542,13 @@
         <v>128</v>
       </c>
       <c r="T39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="U39" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V39" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3397,10 +3610,13 @@
         <v>127</v>
       </c>
       <c r="T40" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="U40" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="V40" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3459,13 +3675,16 @@
         <v>121</v>
       </c>
       <c r="S41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="U41" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="V41" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3592,13 +3811,16 @@
         <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="U43" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="V43" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3660,10 +3882,13 @@
         <v>127</v>
       </c>
       <c r="T44" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="U44" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="V44" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3725,10 +3950,13 @@
         <v>127</v>
       </c>
       <c r="T45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="U45" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="V45" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3787,13 +4015,16 @@
         <v>121</v>
       </c>
       <c r="S46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T46" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="U46" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="V46" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3852,13 +4083,16 @@
         <v>121</v>
       </c>
       <c r="S47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T47" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="U47" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="V47" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3917,16 +4151,19 @@
         <v>121</v>
       </c>
       <c r="S48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>185</v>
+      </c>
+      <c r="V48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
@@ -3982,16 +4219,19 @@
         <v>121</v>
       </c>
       <c r="S49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T49" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="U49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>184</v>
+      </c>
+      <c r="V49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -4050,13 +4290,16 @@
         <v>130</v>
       </c>
       <c r="T50" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="U50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>180</v>
+      </c>
+      <c r="V50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -4115,13 +4358,16 @@
         <v>127</v>
       </c>
       <c r="T51" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="U51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>186</v>
+      </c>
+      <c r="V51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -4177,13 +4423,16 @@
         <v>121</v>
       </c>
       <c r="S52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="U52" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="V52" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
